--- a/Data/original shape file info.xlsx
+++ b/Data/original shape file info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zoe/Documents/Yale EMD/Rotation 1/Dengue - Vietnam/dengue_exploration/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803E8EA4-103D-9446-A4A5-E1A2402B4962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805C85A4-CACA-F049-87EA-A8DEA93EAE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16580" xr2:uid="{EDD7051F-66CD-2B47-A377-2A230A5113D3}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16560" xr2:uid="{EDD7051F-66CD-2B47-A377-2A230A5113D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2058,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F9D9B5-72D3-0C41-90FC-3B6854EAEEA7}">
   <dimension ref="A1:N136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
